--- a/300979.SZ.xlsx
+++ b/300979.SZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67705AFC-BE4A-4CE0-A32C-C8DA6D6C4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749EFCEB-2293-450E-AC4D-BD781B8611A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{D932768E-F4F0-47D8-B5D1-599C32813BFD}"/>
   </bookViews>
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,12 +87,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -101,6 +99,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,11 +136,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,77 +480,78 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>76.739999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>1167</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <f>+K2*K3</f>
         <v>89555.579999999987</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>6221.5751200000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>898.55169000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <f>+K4-K5+K6</f>
         <v>84232.556569999986</v>
       </c>
